--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Files\Services_chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Files\bulipe-tech-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E67976-3F13-42FF-B782-553188E50E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1172F2-03EB-4E28-9766-438BF2D1423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="2388">
   <si>
     <t>Input</t>
   </si>
@@ -6927,7 +6927,277 @@
     <t xml:space="preserve">what the company name </t>
   </si>
   <si>
-    <t xml:space="preserve"> Bulipe Tech </t>
+    <t xml:space="preserve">My company name is  Bulipe Tech </t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>good night</t>
+  </si>
+  <si>
+    <t>how are you</t>
+  </si>
+  <si>
+    <t>I’m fine, thank you</t>
+  </si>
+  <si>
+    <t>what's up</t>
+  </si>
+  <si>
+    <t>not much, you?</t>
+  </si>
+  <si>
+    <t>hey there</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>see you</t>
+  </si>
+  <si>
+    <t>see you soon</t>
+  </si>
+  <si>
+    <t>take care</t>
+  </si>
+  <si>
+    <t>you too</t>
+  </si>
+  <si>
+    <t>I need help</t>
+  </si>
+  <si>
+    <t>how can I assist you</t>
+  </si>
+  <si>
+    <t>can you help me</t>
+  </si>
+  <si>
+    <t>of course</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>you’re welcome</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>no problem</t>
+  </si>
+  <si>
+    <t>appreciate it</t>
+  </si>
+  <si>
+    <t>glad to help</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>it’s okay</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
+    <t>yes?</t>
+  </si>
+  <si>
+    <t>what’s your name</t>
+  </si>
+  <si>
+    <t>I’m a chatbot</t>
+  </si>
+  <si>
+    <t>who are you</t>
+  </si>
+  <si>
+    <t>I’m here to help</t>
+  </si>
+  <si>
+    <t>where are you from</t>
+  </si>
+  <si>
+    <t>I exist in the cloud</t>
+  </si>
+  <si>
+    <t>I need support</t>
+  </si>
+  <si>
+    <t>I’m here for you</t>
+  </si>
+  <si>
+    <t>help me</t>
+  </si>
+  <si>
+    <t>sure, what do you need?</t>
+  </si>
+  <si>
+    <t>what can you do</t>
+  </si>
+  <si>
+    <t>I can assist with many things</t>
+  </si>
+  <si>
+    <t>are you a robot</t>
+  </si>
+  <si>
+    <t>sort of, I’m an AI</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t>nice to meet you too</t>
+  </si>
+  <si>
+    <t>how old are you</t>
+  </si>
+  <si>
+    <t>I don’t age like humans</t>
+  </si>
+  <si>
+    <t>tell me a joke</t>
+  </si>
+  <si>
+    <t>why did the tomato blush?</t>
+  </si>
+  <si>
+    <t>I’m bored</t>
+  </si>
+  <si>
+    <t>want to play a game?</t>
+  </si>
+  <si>
+    <t>do you understand me</t>
+  </si>
+  <si>
+    <t>I’m trying my best</t>
+  </si>
+  <si>
+    <t>how’s it going</t>
+  </si>
+  <si>
+    <t>all good, you?</t>
+  </si>
+  <si>
+    <t>I’m sad</t>
+  </si>
+  <si>
+    <t>I’m happy</t>
+  </si>
+  <si>
+    <t>that’s great to hear</t>
+  </si>
+  <si>
+    <t>what time is it</t>
+  </si>
+  <si>
+    <t>please check your device</t>
+  </si>
+  <si>
+    <t>what day is today</t>
+  </si>
+  <si>
+    <t>check your calendar</t>
+  </si>
+  <si>
+    <t>I like you</t>
+  </si>
+  <si>
+    <t>thank you!</t>
+  </si>
+  <si>
+    <t>you’re smart</t>
+  </si>
+  <si>
+    <t>you’re kind!</t>
+  </si>
+  <si>
+    <t>what’s your job</t>
+  </si>
+  <si>
+    <t>I help with tasks and chats</t>
+  </si>
+  <si>
+    <t>do you sleep</t>
+  </si>
+  <si>
+    <t>I’m always awake</t>
+  </si>
+  <si>
+    <t>I’m hungry</t>
+  </si>
+  <si>
+    <t>grab a snack!</t>
+  </si>
+  <si>
+    <t>let’s chat</t>
+  </si>
+  <si>
+    <t>I’m all ears</t>
+  </si>
+  <si>
+    <t>entertain me</t>
+  </si>
+  <si>
+    <t>want a fun fact?</t>
+  </si>
+  <si>
+    <t>who made you</t>
+  </si>
+  <si>
+    <t>I was made by developers</t>
+  </si>
+  <si>
+    <t>what is AI</t>
+  </si>
+  <si>
+    <t>AI means artificial intelligence</t>
+  </si>
+  <si>
+    <t>are you real</t>
+  </si>
+  <si>
+    <t>I’m real in this chat</t>
+  </si>
+  <si>
+    <t>do you have feelings</t>
+  </si>
+  <si>
+    <t>not really, but I try to relate</t>
+  </si>
+  <si>
+    <t>tell me something</t>
+  </si>
+  <si>
+    <t>did you know octopuses have 3 hearts?</t>
+  </si>
+  <si>
+    <t>are you human</t>
+  </si>
+  <si>
+    <t>no, but I talk like one</t>
+  </si>
+  <si>
+    <t>where am I</t>
+  </si>
+  <si>
+    <t>I don’t have access to that</t>
+  </si>
+  <si>
+    <t>let’s play</t>
+  </si>
+  <si>
+    <t>what game?</t>
+  </si>
+  <si>
+    <t>bye</t>
   </si>
 </sst>
 </file>
@@ -7306,10 +7576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A91D1-0CF4-4BF7-9DCE-20B95D8F04A9}">
-  <dimension ref="A1:B1389"/>
+  <dimension ref="A1:B1439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A1430" workbookViewId="0">
+      <selection activeCell="A1390" sqref="A1390:B1439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18418,6 +18688,406 @@
         <v>2221</v>
       </c>
     </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1390" s="2" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1391" s="2" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1392" s="2" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1393" s="2" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1394" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1395" s="2" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1396" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1397" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1398" s="2" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1399" s="2" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1400" s="2" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1401" s="2" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1402" s="2" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1403" s="2" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1404" s="2" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1405" s="2" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1406" s="2" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1407" s="2" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1408" s="2" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1409" s="2" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1410" s="2" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1411" s="2" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1412" s="2" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1413" s="2" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1414" s="2" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1417" s="2" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1420" s="2" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1421" s="2" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1423" s="2" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1426" s="2" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>2387</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B558" r:id="rId1" display="mailto:info@bulipetech.com" xr:uid="{F1D35898-C9DE-4EC4-97A6-BBDA6AD7507A}"/>
@@ -18429,5 +19099,6 @@
     <hyperlink ref="B1191" r:id="rId7" display="mailto:info@bulipetech.com" xr:uid="{85A29EF1-1EFE-460B-AD4D-7EF59CB35585}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Files\bulipe-tech-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1172F2-03EB-4E28-9766-438BF2D1423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B358D-ACFA-4445-9C37-E910B4FE0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="2425">
   <si>
     <t>Input</t>
   </si>
@@ -7198,6 +7198,117 @@
   </si>
   <si>
     <t>bye</t>
+  </si>
+  <si>
+    <t>What is Digital Marketing?</t>
+  </si>
+  <si>
+    <t>Digital Marketing is the promotion of products or services using online platforms like search engines, social media, and digital advertising to reach target audiences.</t>
+  </si>
+  <si>
+    <t>What does Bulipe Tech offer in Digital Marketing training?</t>
+  </si>
+  <si>
+    <t>Bulipe Tech provides advanced training in SEO, content creation, and online advertising, designed to prepare learners for real-world digital marketing careers.</t>
+  </si>
+  <si>
+    <t>What is IT Support Specialist training?</t>
+  </si>
+  <si>
+    <t>IT Support Specialist training equips learners with skills in maintaining computer systems, troubleshooting technical issues, and providing client-facing tech support.</t>
+  </si>
+  <si>
+    <t>What does Bulipe Tech's IT Support program include?</t>
+  </si>
+  <si>
+    <t>The program includes training in hardware/software maintenance, help desk operations, and customer interaction to prepare students for IT support roles.</t>
+  </si>
+  <si>
+    <t>What is Online Sales and Marketing?</t>
+  </si>
+  <si>
+    <t>Online Sales and Marketing involves using digital tools and platforms to drive product sales and engage customers effectively across online channels.</t>
+  </si>
+  <si>
+    <t>How does Bulipe Tech train for Online Sales and Marketing?</t>
+  </si>
+  <si>
+    <t>The course teaches practical techniques in digital sales strategies, customer engagement, and conversion optimization to improve online business outcomes.</t>
+  </si>
+  <si>
+    <t>What is Social Media Management?</t>
+  </si>
+  <si>
+    <t>Social Media Management is the strategic handling of social media platforms to build brand presence, interact with audiences, and drive engagement.</t>
+  </si>
+  <si>
+    <t>What does Bulipe Tech offer in Social Media Management training?</t>
+  </si>
+  <si>
+    <t>Bulipe Tech trains learners to manage, schedule, and optimize social media content across platforms like Facebook, Instagram, and LinkedIn.</t>
+  </si>
+  <si>
+    <t>What is Online Web Posting?</t>
+  </si>
+  <si>
+    <t>Online Web Posting involves creating and managing digital content across websites and online platforms to inform or engage online audiences.</t>
+  </si>
+  <si>
+    <t>What does Bulipe Tech teach in Online Web Posting?</t>
+  </si>
+  <si>
+    <t>The training includes skills for writing, formatting, and publishing content online, plus managing website updates and content schedules.</t>
+  </si>
+  <si>
+    <t>What is Data Entry &amp; Virtual Assistance?</t>
+  </si>
+  <si>
+    <t>Data Entry &amp; Virtual Assistance involves inputting information accurately into digital systems and offering remote support for business tasks.</t>
+  </si>
+  <si>
+    <t>How does Bulipe Tech prepare learners for Data Entry &amp; VA roles?</t>
+  </si>
+  <si>
+    <t>The program focuses on accurate data handling, document preparation, calendar scheduling, and remote business support tools.</t>
+  </si>
+  <si>
+    <t>Are basic digital skills included in all Bulipe Tech programs?</t>
+  </si>
+  <si>
+    <t>Yes, every course includes foundational training in Basic Digital Literacy, ensuring all students can navigate technology effectively.</t>
+  </si>
+  <si>
+    <t>Does Bulipe Tech provide Microsoft Office training?</t>
+  </si>
+  <si>
+    <t>Yes, Advanced Microsoft Office is a core component of all programs, covering Word, Excel, PowerPoint, and Outlook skills.</t>
+  </si>
+  <si>
+    <t>Is Spoken English included in Bulipe Tech courses?</t>
+  </si>
+  <si>
+    <t>Yes, all training programs include Spoken English Levels 1 &amp; 2 to enhance communication and job readiness.</t>
+  </si>
+  <si>
+    <t>What is Client Support training?</t>
+  </si>
+  <si>
+    <t>Client Support training develops skills in customer service, professional communication, and issue resolution for various roles.</t>
+  </si>
+  <si>
+    <t>Why should I choose Bulipe Tech for skill development?</t>
+  </si>
+  <si>
+    <t>Bulipe Tech provides globally aligned, job-ready training supported by parent companies in the USA and UK, ensuring industry relevance.</t>
+  </si>
+  <si>
+    <t>Bulipe Tech is based in Bangladesh with international affiliations in the USA and UK.</t>
+  </si>
+  <si>
+    <t>What is Bulipe Tech’s mission?</t>
+  </si>
+  <si>
+    <t>Bulipe Tech aims to empower the Bangladeshi workforce by providing globally recognized training and certifications in high-demand sectors.</t>
   </si>
 </sst>
 </file>
@@ -7576,10 +7687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A91D1-0CF4-4BF7-9DCE-20B95D8F04A9}">
-  <dimension ref="A1:B1439"/>
+  <dimension ref="A1:B1458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1430" workbookViewId="0">
-      <selection activeCell="A1390" sqref="A1390:B1439"/>
+    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
+      <selection activeCell="B1459" sqref="B1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19086,6 +19197,158 @@
       </c>
       <c r="B1439" s="2" t="s">
         <v>2387</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1447" s="2" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1450" s="2" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1453" s="2" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1455" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1455" s="2" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1456" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1456" s="2" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1457" s="2" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1458" s="2" t="s">
+        <v>2424</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Files\bulipe-tech-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B358D-ACFA-4445-9C37-E910B4FE0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FCD6A-0124-4C82-81FF-CF54EB359C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="2425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="2430">
   <si>
     <t>Input</t>
   </si>
@@ -7309,6 +7309,21 @@
   </si>
   <si>
     <t>Bulipe Tech aims to empower the Bangladeshi workforce by providing globally recognized training and certifications in high-demand sectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is your email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell me your email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">give me your  email </t>
+  </si>
+  <si>
+    <t>Our email address is info@bulipe.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how I connect with you </t>
   </si>
 </sst>
 </file>
@@ -7361,7 +7376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7372,6 +7387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7687,10 +7703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A91D1-0CF4-4BF7-9DCE-20B95D8F04A9}">
-  <dimension ref="A1:B1458"/>
+  <dimension ref="A1:B1468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
-      <selection activeCell="B1459" sqref="B1459"/>
+      <selection activeCell="B1467" sqref="B1467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19351,6 +19367,66 @@
         <v>2424</v>
       </c>
     </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1459" s="4" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1461" s="2" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1462" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1463" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2"/>
+      <c r="B1464" s="3"/>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2"/>
+      <c r="B1465" s="3"/>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2"/>
+      <c r="B1466" s="3"/>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2"/>
+      <c r="B1467" s="3"/>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2"/>
+      <c r="B1468" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B558" r:id="rId1" display="mailto:info@bulipetech.com" xr:uid="{F1D35898-C9DE-4EC4-97A6-BBDA6AD7507A}"/>
@@ -19360,8 +19436,10 @@
     <hyperlink ref="B999" r:id="rId5" display="mailto:info@bulipetech.com" xr:uid="{FD596F7E-603B-4B47-B0A8-C2CEAE2BA1A4}"/>
     <hyperlink ref="B1151" r:id="rId6" display="mailto:info@bulipetech.com" xr:uid="{4321A990-9665-4E1F-B5F3-EBD79C7FAF6A}"/>
     <hyperlink ref="B1191" r:id="rId7" display="mailto:info@bulipetech.com" xr:uid="{85A29EF1-1EFE-460B-AD4D-7EF59CB35585}"/>
+    <hyperlink ref="B1462" r:id="rId8" display="mailto:info@bulipetech.com" xr:uid="{BE4EEDF2-7F34-4BA2-BBD3-C587CF551414}"/>
+    <hyperlink ref="B1463" r:id="rId9" display="mailto:info@bulipetech.com" xr:uid="{BAEE879D-EE2B-4569-BF56-118D120A615C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Files\bulipe-tech-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FCD6A-0124-4C82-81FF-CF54EB359C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7063C-BD3D-4916-B6E4-D9191326D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAB40415-0058-41B5-B0A7-B02151E089EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="2430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="2434">
   <si>
     <t>Input</t>
   </si>
@@ -7324,13 +7324,25 @@
   </si>
   <si>
     <t xml:space="preserve">how I connect with you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is your company name </t>
+  </si>
+  <si>
+    <t>my company name is Bulipe Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where are you work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am work in bulipe tech </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7354,16 +7366,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7371,12 +7402,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7388,8 +7435,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7705,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A91D1-0CF4-4BF7-9DCE-20B95D8F04A9}">
   <dimension ref="A1:B1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
-      <selection activeCell="B1467" sqref="B1467"/>
+    <sheetView tabSelected="1" topLeftCell="A1446" workbookViewId="0">
+      <selection activeCell="A1466" sqref="A1466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19407,13 +19459,21 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1464" s="2"/>
-      <c r="B1464" s="3"/>
+    <row r="1464" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1464" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1464" s="6" t="s">
+        <v>2431</v>
+      </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1465" s="2"/>
-      <c r="B1465" s="3"/>
+      <c r="A1465" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1465" s="3" t="s">
+        <v>2433</v>
+      </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1466" s="2"/>
